--- a/data/1M/Austria 1M.xlsx
+++ b/data/1M/Austria 1M.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -67,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,7 +589,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42035</v>
       </c>
       <c r="B2" t="n">
@@ -669,7 +672,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42063</v>
       </c>
       <c r="B3" t="n">
@@ -752,7 +755,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42094</v>
       </c>
       <c r="B4" t="n">
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42124</v>
       </c>
       <c r="B5" t="n">
@@ -918,7 +921,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42155</v>
       </c>
       <c r="B6" t="n">
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42185</v>
       </c>
       <c r="B7" t="n">
@@ -1084,7 +1087,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42216</v>
       </c>
       <c r="B8" t="n">
@@ -1167,7 +1170,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42247</v>
       </c>
       <c r="B9" t="n">
@@ -1250,7 +1253,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42277</v>
       </c>
       <c r="B10" t="n">
@@ -1333,7 +1336,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42308</v>
       </c>
       <c r="B11" t="n">
@@ -1416,7 +1419,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42338</v>
       </c>
       <c r="B12" t="n">
@@ -1499,7 +1502,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42369</v>
       </c>
       <c r="B13" t="n">
@@ -1592,7 +1595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,7 +1741,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="B2" t="n">
@@ -1821,7 +1824,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45351</v>
       </c>
       <c r="B3" t="n">
@@ -1904,7 +1907,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45382</v>
       </c>
       <c r="B4" t="n">
@@ -1987,7 +1990,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="B5" t="n">
@@ -2070,7 +2073,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="B6" t="n">
@@ -2104,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>398828.25</v>
+        <v>398801.25</v>
       </c>
       <c r="M6" t="n">
         <v>-205717</v>
       </c>
       <c r="N6" t="n">
-        <v>3292713</v>
+        <v>3292788.25</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>433874.5</v>
+        <v>433826.75</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2153,17 +2156,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45473</v>
       </c>
       <c r="B7" t="n">
-        <v>117371</v>
+        <v>131839</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34786</v>
+        <v>37138.25</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2187,25 +2190,25 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>392464.75</v>
+        <v>455318.75</v>
       </c>
       <c r="M7" t="n">
-        <v>-259201.25</v>
+        <v>-309153.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2973207.75</v>
+        <v>3348531</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>477188.5</v>
+        <v>546497.25</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14047</v>
+        <v>15840</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -2217,21 +2220,104 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>730487</v>
+        <v>817506</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63850</v>
+        <v>72000</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>363998</v>
+        <v>447465</v>
       </c>
       <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>750.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>76432.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-7168.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>393677.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>65423.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1793</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>83743</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8150</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>103729</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2392,7 +2478,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42400</v>
       </c>
       <c r="B2" t="n">
@@ -2475,7 +2561,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42429</v>
       </c>
       <c r="B3" t="n">
@@ -2558,7 +2644,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42460</v>
       </c>
       <c r="B4" t="n">
@@ -2641,7 +2727,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42490</v>
       </c>
       <c r="B5" t="n">
@@ -2724,7 +2810,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="B6" t="n">
@@ -2807,7 +2893,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42551</v>
       </c>
       <c r="B7" t="n">
@@ -2890,7 +2976,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42582</v>
       </c>
       <c r="B8" t="n">
@@ -2973,7 +3059,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="B9" t="n">
@@ -3056,7 +3142,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42643</v>
       </c>
       <c r="B10" t="n">
@@ -3139,7 +3225,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42674</v>
       </c>
       <c r="B11" t="n">
@@ -3222,7 +3308,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42704</v>
       </c>
       <c r="B12" t="n">
@@ -3305,7 +3391,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42735</v>
       </c>
       <c r="B13" t="n">
@@ -3544,7 +3630,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="B2" t="n">
@@ -3627,7 +3713,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42794</v>
       </c>
       <c r="B3" t="n">
@@ -3710,7 +3796,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42825</v>
       </c>
       <c r="B4" t="n">
@@ -3793,7 +3879,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42855</v>
       </c>
       <c r="B5" t="n">
@@ -3876,7 +3962,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42886</v>
       </c>
       <c r="B6" t="n">
@@ -3959,7 +4045,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42916</v>
       </c>
       <c r="B7" t="n">
@@ -4042,7 +4128,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="B8" t="n">
@@ -4125,7 +4211,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42978</v>
       </c>
       <c r="B9" t="n">
@@ -4208,7 +4294,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43008</v>
       </c>
       <c r="B10" t="n">
@@ -4291,7 +4377,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43039</v>
       </c>
       <c r="B11" t="n">
@@ -4374,7 +4460,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43069</v>
       </c>
       <c r="B12" t="n">
@@ -4457,7 +4543,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43100</v>
       </c>
       <c r="B13" t="n">
@@ -4696,7 +4782,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43131</v>
       </c>
       <c r="B2" t="n">
@@ -4779,7 +4865,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43159</v>
       </c>
       <c r="B3" t="n">
@@ -4862,7 +4948,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43190</v>
       </c>
       <c r="B4" t="n">
@@ -4945,7 +5031,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43220</v>
       </c>
       <c r="B5" t="n">
@@ -5028,7 +5114,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43251</v>
       </c>
       <c r="B6" t="n">
@@ -5111,7 +5197,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43281</v>
       </c>
       <c r="B7" t="n">
@@ -5194,7 +5280,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="B8" t="n">
@@ -5277,7 +5363,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43343</v>
       </c>
       <c r="B9" t="n">
@@ -5360,7 +5446,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43373</v>
       </c>
       <c r="B10" t="n">
@@ -5443,7 +5529,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43404</v>
       </c>
       <c r="B11" t="n">
@@ -5526,7 +5612,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43434</v>
       </c>
       <c r="B12" t="n">
@@ -5609,7 +5695,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43465</v>
       </c>
       <c r="B13" t="n">
@@ -5848,7 +5934,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -5931,7 +6017,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43524</v>
       </c>
       <c r="B3" t="n">
@@ -6014,7 +6100,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43555</v>
       </c>
       <c r="B4" t="n">
@@ -6097,7 +6183,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43585</v>
       </c>
       <c r="B5" t="n">
@@ -6180,7 +6266,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43616</v>
       </c>
       <c r="B6" t="n">
@@ -6263,7 +6349,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43646</v>
       </c>
       <c r="B7" t="n">
@@ -6346,7 +6432,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="B8" t="n">
@@ -6429,7 +6515,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43708</v>
       </c>
       <c r="B9" t="n">
@@ -6512,7 +6598,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="B10" t="n">
@@ -6595,7 +6681,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="B11" t="n">
@@ -6678,7 +6764,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43799</v>
       </c>
       <c r="B12" t="n">
@@ -6761,7 +6847,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43830</v>
       </c>
       <c r="B13" t="n">
@@ -7000,7 +7086,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43861</v>
       </c>
       <c r="B2" t="n">
@@ -7083,7 +7169,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B3" t="n">
@@ -7166,7 +7252,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B4" t="n">
@@ -7249,7 +7335,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B5" t="n">
@@ -7332,7 +7418,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43982</v>
       </c>
       <c r="B6" t="n">
@@ -7415,7 +7501,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44012</v>
       </c>
       <c r="B7" t="n">
@@ -7498,7 +7584,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44043</v>
       </c>
       <c r="B8" t="n">
@@ -7581,7 +7667,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44074</v>
       </c>
       <c r="B9" t="n">
@@ -7664,7 +7750,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44104</v>
       </c>
       <c r="B10" t="n">
@@ -7747,7 +7833,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44135</v>
       </c>
       <c r="B11" t="n">
@@ -7830,7 +7916,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44165</v>
       </c>
       <c r="B12" t="n">
@@ -7913,7 +7999,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="B13" t="n">
@@ -8152,7 +8238,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44227</v>
       </c>
       <c r="B2" t="n">
@@ -8235,7 +8321,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="B3" t="n">
@@ -8318,7 +8404,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44286</v>
       </c>
       <c r="B4" t="n">
@@ -8401,7 +8487,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B5" t="n">
@@ -8484,7 +8570,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" t="n">
@@ -8567,7 +8653,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B7" t="n">
@@ -8650,7 +8736,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B8" t="n">
@@ -8733,7 +8819,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B9" t="n">
@@ -8816,7 +8902,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B10" t="n">
@@ -8899,7 +8985,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44500</v>
       </c>
       <c r="B11" t="n">
@@ -8982,7 +9068,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B12" t="n">
@@ -9065,7 +9151,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B13" t="n">
@@ -9304,7 +9390,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B2" t="n">
@@ -9387,7 +9473,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B3" t="n">
@@ -9470,7 +9556,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B4" t="n">
@@ -9553,7 +9639,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="B5" t="n">
@@ -9636,7 +9722,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B6" t="n">
@@ -9719,7 +9805,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B7" t="n">
@@ -9802,7 +9888,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="B8" t="n">
@@ -9885,7 +9971,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B9" t="n">
@@ -9968,7 +10054,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="B10" t="n">
@@ -10051,7 +10137,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B11" t="n">
@@ -10134,7 +10220,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B12" t="n">
@@ -10217,7 +10303,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B13" t="n">
@@ -10456,7 +10542,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B2" t="n">
@@ -10539,7 +10625,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B3" t="n">
@@ -10622,7 +10708,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B4" t="n">
@@ -10705,7 +10791,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B5" t="n">
@@ -10788,7 +10874,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B6" t="n">
@@ -10871,7 +10957,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B7" t="n">
@@ -10954,7 +11040,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B8" t="n">
@@ -11037,7 +11123,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B9" t="n">
@@ -11120,7 +11206,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B10" t="n">
@@ -11203,7 +11289,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="B11" t="n">
@@ -11286,7 +11372,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="B12" t="n">
@@ -11369,7 +11455,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45291</v>
       </c>
       <c r="B13" t="n">
@@ -11689,9 +11775,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AEC954D-78C2-4055-9950-038AB7A6244B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508B0FA7-5713-42B0-92D0-73E1FFB460D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B784296B-AEB9-4409-94CE-2BE2CD787FBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11019B20-E1A8-4D9D-8450-EEFD0DCA9EAF}"/>
 </file>